--- a/EL.xlsx
+++ b/EL.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\7sher\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\7sher\OneDrive\Desktop\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40C2C7E0-1890-4F67-8FFF-C95AD809442E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5204BBB8-4B56-4EC6-85A9-8D437E81B3DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="645" yWindow="780" windowWidth="23670" windowHeight="14145" activeTab="1" xr2:uid="{8A65AD5F-1866-447A-AB16-0A0774236DAE}"/>
+    <workbookView xWindow="2175" yWindow="465" windowWidth="20925" windowHeight="15015" activeTab="1" xr2:uid="{8A65AD5F-1866-447A-AB16-0A0774236DAE}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -37,10 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="40">
-  <si>
-    <t>EL</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="39">
   <si>
     <t>Price</t>
   </si>
@@ -163,6 +160,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0%"/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -206,7 +206,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -217,6 +217,7 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -657,77 +658,75 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51FF5013-981B-49A2-8AEE-1778B1EE71FD}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:L7"/>
   <sheetViews>
-    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="J2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C2" t="s">
+      <c r="K2" s="2">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="J3" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="2">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="2">
+      <c r="K3" s="2">
         <f>233.177+125.542</f>
         <v>358.71899999999999</v>
       </c>
-      <c r="E3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C4" t="s">
+      <c r="L3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="J4" t="s">
+        <v>2</v>
+      </c>
+      <c r="K4" s="2">
+        <f>K3*K2</f>
+        <v>22958.016</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="J5" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="2">
-        <f>D3*D2</f>
-        <v>22958.016</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C5" t="s">
+      <c r="K5" s="2">
+        <v>3395</v>
+      </c>
+      <c r="L5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="J6" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="2">
-        <v>3395</v>
-      </c>
-      <c r="E5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" s="2">
+      <c r="K6" s="2">
         <f>7267+1701+1693</f>
         <v>10661</v>
       </c>
-      <c r="E6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C7" t="s">
+      <c r="L6" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="2">
-        <f>D4+D6-D5</f>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="J7" t="s">
+        <v>5</v>
+      </c>
+      <c r="K7" s="2">
+        <f>K4+K6-K5</f>
         <v>30224.016000000003</v>
       </c>
     </row>
@@ -744,7 +743,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="P28" sqref="P28"/>
+      <selection pane="bottomRight" activeCell="T26" sqref="T26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -756,22 +755,22 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="I1" s="5">
         <v>2022</v>
@@ -812,7 +811,7 @@
     <row r="2" spans="1:17" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I2" s="4">
         <v>17737</v>
@@ -849,7 +848,7 @@
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I3" s="2">
         <v>4305</v>
@@ -887,7 +886,7 @@
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I4" s="2">
         <f>I2-I3</f>
@@ -928,7 +927,7 @@
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B5" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I5" s="2">
         <v>9888</v>
@@ -946,7 +945,7 @@
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I6" s="2">
         <v>241</v>
@@ -964,7 +963,7 @@
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B7" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I7" s="2">
         <f>SUM(I5:I6)</f>
@@ -1005,7 +1004,7 @@
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B8" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I8" s="2">
         <f>I4-I7</f>
@@ -1046,7 +1045,7 @@
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B9" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I9" s="2">
         <f>30-167</f>
@@ -1065,28 +1064,28 @@
       </c>
       <c r="M9" s="2">
         <f>L24*$T$17</f>
-        <v>-435.96</v>
+        <v>-145.32</v>
       </c>
       <c r="N9" s="2">
         <f t="shared" ref="N9:Q9" si="12">M24*$T$17</f>
-        <v>-365.2610894220399</v>
+        <v>-117.16158447401331</v>
       </c>
       <c r="O9" s="2">
         <f t="shared" si="12"/>
-        <v>-256.78582866517786</v>
+        <v>-77.083192043547157</v>
       </c>
       <c r="P9" s="2">
         <f t="shared" si="12"/>
-        <v>-130.36619662057618</v>
+        <v>-32.104013036724808</v>
       </c>
       <c r="Q9" s="2">
         <f t="shared" si="12"/>
-        <v>10.499794082662865</v>
+        <v>16.403859698313063</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B10" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I10" s="2">
         <f>I8+I9</f>
@@ -1106,28 +1105,28 @@
       </c>
       <c r="M10" s="2">
         <f t="shared" si="13"/>
-        <v>1491.5381978472587</v>
+        <v>1782.1781978472588</v>
       </c>
       <c r="N10" s="2">
         <f t="shared" si="13"/>
-        <v>2288.507610904262</v>
+        <v>2536.6071158522886</v>
       </c>
       <c r="O10" s="2">
         <f t="shared" si="13"/>
-        <v>2667.0808448228208</v>
+        <v>2846.7834814444518</v>
       </c>
       <c r="P10" s="2">
         <f t="shared" si="13"/>
-        <v>2971.8563439501904</v>
+        <v>3070.1185275340422</v>
       </c>
       <c r="Q10" s="2">
         <f t="shared" si="13"/>
-        <v>3301.9579096282482</v>
+        <v>3307.8619752438985</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B11" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I11" s="2">
         <v>628</v>
@@ -1144,29 +1143,29 @@
       </c>
       <c r="M11" s="2">
         <f>M10*M18</f>
-        <v>313.2230215479243</v>
+        <v>374.25742154792437</v>
       </c>
       <c r="N11" s="2">
         <f t="shared" ref="N11:Q11" si="14">N10*N18</f>
-        <v>480.58659828989499</v>
+        <v>532.68749432898062</v>
       </c>
       <c r="O11" s="2">
         <f t="shared" si="14"/>
-        <v>560.08697741279241</v>
+        <v>597.82453110333483</v>
       </c>
       <c r="P11" s="2">
         <f t="shared" si="14"/>
-        <v>624.08983222953998</v>
+        <v>644.7248907821488</v>
       </c>
       <c r="Q11" s="2">
         <f t="shared" si="14"/>
-        <v>693.41116102193212</v>
+        <v>694.65101480121871</v>
       </c>
     </row>
     <row r="12" spans="1:17" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I12" s="4">
         <f>I10-I11</f>
@@ -1186,28 +1185,28 @@
       </c>
       <c r="M12" s="4">
         <f t="shared" si="15"/>
-        <v>1178.3151762993343</v>
+        <v>1407.9207762993344</v>
       </c>
       <c r="N12" s="4">
         <f t="shared" si="15"/>
-        <v>1807.9210126143671</v>
+        <v>2003.919621523308</v>
       </c>
       <c r="O12" s="4">
         <f t="shared" si="15"/>
-        <v>2106.9938674100285</v>
+        <v>2248.9589503411171</v>
       </c>
       <c r="P12" s="4">
         <f t="shared" si="15"/>
-        <v>2347.7665117206507</v>
+        <v>2425.3936367518936</v>
       </c>
       <c r="Q12" s="4">
         <f t="shared" si="15"/>
-        <v>2608.5467486063162</v>
+        <v>2613.2109604426796</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B13" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I13" s="8">
         <f>I12/I14</f>
@@ -1227,28 +1226,28 @@
       </c>
       <c r="M13" s="8">
         <f t="shared" si="16"/>
-        <v>3.3179657330593235</v>
+        <v>3.9645020148978896</v>
       </c>
       <c r="N13" s="8">
         <f t="shared" si="16"/>
-        <v>5.1422677146961666</v>
+        <v>5.6997463388647933</v>
       </c>
       <c r="O13" s="8">
         <f t="shared" si="16"/>
-        <v>6.0534548496873066</v>
+        <v>6.4613246745823503</v>
       </c>
       <c r="P13" s="8">
         <f t="shared" si="16"/>
-        <v>6.8133350313121763</v>
+        <v>7.0386128039164859</v>
       </c>
       <c r="Q13" s="8">
         <f t="shared" si="16"/>
-        <v>7.6465982139298179</v>
+        <v>7.6602707133459704</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B14" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I14" s="2">
         <v>365</v>
@@ -1287,7 +1286,7 @@
     <row r="16" spans="1:17" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J16" s="6">
         <f>J2/I2-1</f>
@@ -1324,18 +1323,18 @@
     </row>
     <row r="17" spans="1:115" x14ac:dyDescent="0.2">
       <c r="B17" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="S17" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="T17" s="9">
-        <v>0.06</v>
+        <v>34</v>
+      </c>
+      <c r="T17" s="7">
+        <v>0.02</v>
       </c>
     </row>
     <row r="18" spans="1:115" x14ac:dyDescent="0.2">
       <c r="B18" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I18" s="7">
         <f>I11/I10</f>
@@ -1368,24 +1367,24 @@
         <v>0.21</v>
       </c>
       <c r="S18" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="T18" s="9">
+        <v>35</v>
+      </c>
+      <c r="T18" s="7">
         <v>0.01</v>
       </c>
     </row>
     <row r="19" spans="1:115" x14ac:dyDescent="0.2">
       <c r="S19" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="T19" s="9">
+        <v>36</v>
+      </c>
+      <c r="T19" s="10">
         <v>7.4999999999999997E-2</v>
       </c>
     </row>
     <row r="20" spans="1:115" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
       <c r="B20" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I20" s="6">
         <f>I4/I2</f>
@@ -1421,16 +1420,16 @@
         <v>0.74</v>
       </c>
       <c r="S20" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="T20" s="4">
-        <f>NPV(T19,M30:XFD30)+Main!D5-Main!D6</f>
+        <f>NPV(T19,M30:XFD30)+Main!K5-Main!K6</f>
         <v>31417.730926822071</v>
       </c>
     </row>
     <row r="21" spans="1:115" x14ac:dyDescent="0.2">
       <c r="B21" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I21" s="7">
         <f>I8/I2</f>
@@ -1469,16 +1468,16 @@
         <v>0.17000000000000007</v>
       </c>
       <c r="S21" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T21" s="2">
-        <f>T20/Main!D3</f>
+        <f>T20/Main!K3</f>
         <v>87.58312474895969</v>
       </c>
     </row>
     <row r="22" spans="1:115" x14ac:dyDescent="0.2">
       <c r="B22" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I22" s="7">
         <f>I7/I2</f>
@@ -1513,16 +1512,16 @@
         <v>0.56999999999999995</v>
       </c>
       <c r="S22" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="T22" s="7">
-        <f>T21/Main!D2-1</f>
+        <f>T21/Main!K2-1</f>
         <v>0.36848632420249516</v>
       </c>
     </row>
     <row r="24" spans="1:115" x14ac:dyDescent="0.2">
       <c r="B24" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E24" s="2">
         <f>E25-E26</f>
@@ -1538,28 +1537,28 @@
       </c>
       <c r="M24" s="2">
         <f>L24+M12</f>
-        <v>-6087.6848237006652</v>
+        <v>-5858.0792237006654</v>
       </c>
       <c r="N24" s="2">
         <f t="shared" ref="N24:Q24" si="25">M24+N12</f>
-        <v>-4279.7638110862981</v>
+        <v>-3854.1596021773576</v>
       </c>
       <c r="O24" s="2">
         <f t="shared" si="25"/>
-        <v>-2172.7699436762696</v>
+        <v>-1605.2006518362405</v>
       </c>
       <c r="P24" s="2">
         <f t="shared" si="25"/>
-        <v>174.99656804438109</v>
+        <v>820.19298491565314</v>
       </c>
       <c r="Q24" s="2">
         <f t="shared" si="25"/>
-        <v>2783.5433166506973</v>
+        <v>3433.4039453583327</v>
       </c>
     </row>
     <row r="25" spans="1:115" x14ac:dyDescent="0.2">
       <c r="B25" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E25" s="2">
         <v>3395</v>
@@ -1571,7 +1570,7 @@
     </row>
     <row r="26" spans="1:115" x14ac:dyDescent="0.2">
       <c r="B26" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E26" s="2">
         <f>7267+1701+1693</f>
@@ -1589,7 +1588,7 @@
     </row>
     <row r="28" spans="1:115" x14ac:dyDescent="0.2">
       <c r="B28" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I28" s="2">
         <v>3040</v>
@@ -1609,7 +1608,7 @@
         <v>2750.1119999999996</v>
       </c>
       <c r="N28" s="2">
-        <f t="shared" ref="N28:Q28" si="26">N2*0.18</f>
+        <f t="shared" ref="N28" si="26">N2*0.18</f>
         <v>2917.8688319999997</v>
       </c>
       <c r="O28" s="2">
@@ -1627,7 +1626,7 @@
     </row>
     <row r="29" spans="1:115" x14ac:dyDescent="0.2">
       <c r="B29" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I29" s="2">
         <v>1040</v>
@@ -1666,7 +1665,7 @@
     <row r="30" spans="1:115" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
       <c r="B30" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I30" s="4">
         <f>I28-I29</f>
